--- a/Report/Results.xlsx
+++ b/Report/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F454C24-3EAC-401B-AC28-940F7E876E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E8929-F952-4C14-B9CE-B4002F02126F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46907F2E-E366-4623-904C-E513EE6937E6}"/>
   </bookViews>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>NO MATHS</t>
-  </si>
-  <si>
-    <t>MATHS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>DO HELL</t>
   </si>
@@ -53,11 +47,32 @@
   <si>
     <t>REALTIME</t>
   </si>
+  <si>
+    <t>REALTIME DO HELL</t>
+  </si>
+  <si>
+    <t>XENOMAI</t>
+  </si>
+  <si>
+    <t>XENOMAI DO HELL</t>
+  </si>
+  <si>
+    <t>ASS211</t>
+  </si>
+  <si>
+    <t>MLOCKout</t>
+  </si>
+  <si>
+    <t>MLOCKOUT_DOHELL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,15 +89,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -90,13 +123,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,286 +561,1267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ED4A1D-A06F-4E3B-A0E4-7C95571EC8E9}">
-  <dimension ref="B1:G25"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="2:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>5.6957440000000004</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5.8144419999999997</v>
+      </c>
+      <c r="F2">
+        <v>5.5565059999999997</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.6566789999999996</v>
+      </c>
+      <c r="J2" s="17">
+        <v>5.5878139999999998</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="7">
+        <v>5.6685699999999999</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="18"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>5.6965529999999998</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5.8074969999999997</v>
+      </c>
+      <c r="F3">
+        <v>5.5445019999999996</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5.6821299999999999</v>
+      </c>
+      <c r="J3" s="17">
+        <v>5.5949710000000001</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="7">
+        <v>5.5551680000000001</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="18"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>5.6983319999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.7617310000000002</v>
+      </c>
+      <c r="F4">
+        <v>5.545058</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.7039359999999997</v>
+      </c>
+      <c r="J4" s="17">
+        <v>5.5362260000000001</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="7">
+        <v>5.6743389999999998</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="18"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>5.7012049999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5.7850630000000001</v>
+      </c>
+      <c r="F5">
+        <v>5.5478670000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5.6210440000000004</v>
+      </c>
+      <c r="J5" s="17">
+        <v>5.6031810000000002</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="7">
+        <v>5.674779</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="18"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>5.7074819999999997</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.7913819999999996</v>
+      </c>
+      <c r="F6">
+        <v>5.5431299999999997</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.6376520000000001</v>
+      </c>
+      <c r="J6" s="17">
+        <v>5.5796890000000001</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="7">
+        <v>5.6015220000000001</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="18"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>5.7052509999999996</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5.6818730000000004</v>
+      </c>
+      <c r="F7">
+        <v>5.5468070000000003</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.6431199999999997</v>
+      </c>
+      <c r="J7" s="17">
+        <v>5.5426250000000001</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="7">
+        <v>5.7065060000000001</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="18"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>5.6987139999999998</v>
+      </c>
+      <c r="D8" s="3">
+        <v>5.6607909999999997</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5.5479710000000004</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="J8" s="17">
+        <v>5.5649110000000004</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="7">
+        <v>5.6448660000000004</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="18"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>5.6988490000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.8914220000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5.5421810000000002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5.7453779999999997</v>
+      </c>
+      <c r="J9" s="17">
+        <v>5.5354179999999999</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="7">
+        <v>5.5958399999999999</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="18"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>5.7004929999999998</v>
+      </c>
+      <c r="D10" s="3">
+        <v>5.8174890000000001</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5.5386860000000002</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5.6032299999999999</v>
+      </c>
+      <c r="J10" s="17">
+        <v>5.5652720000000002</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="7">
+        <v>5.6864800000000004</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="18"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>5.7060529999999998</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.7884469999999997</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5.5434239999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5.6272149999999996</v>
+      </c>
+      <c r="J11" s="17">
+        <v>5.5534629999999998</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7">
+        <v>5.6039349999999999</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="18"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <f>AVERAGE(B2:B11)</f>
+        <v>5.7008676000000005</v>
+      </c>
+      <c r="D12" s="4">
+        <f>AVERAGE(D2:D11)</f>
+        <v>5.7800136999999996</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4">
+        <f>AVERAGE(F2:F11)</f>
+        <v>5.5456132</v>
+      </c>
+      <c r="H12" s="4">
+        <f>AVERAGE(H2:H11)</f>
+        <v>5.6578204444444449</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="19">
+        <f>AVERAGE(J2:J11)</f>
+        <v>5.566357</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="9">
+        <f>AVERAGE(L2:L11)</f>
+        <v>5.641200500000001</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="18"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>4.0840621988950535E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>6.6802035542921759E-2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4">
+        <f>_xlfn.STDEV.S(F2:F11)</f>
+        <v>4.7490943417314987E-3</v>
+      </c>
+      <c r="H13" s="4">
+        <f>_xlfn.STDEV.S(H2:H11)</f>
+        <v>4.5107390364858918E-2</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="19">
+        <f>_xlfn.STDEV.S(J2:J11)</f>
+        <v>2.4519251230184218E-2</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="9">
+        <f>_xlfn.STDEV.S(L2:L11)</f>
+        <v>4.9131919455572784E-2</v>
+      </c>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="18"/>
+    </row>
+    <row r="14" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="20"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="18"/>
+    </row>
+    <row r="15" spans="2:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" t="s">
+      <c r="D15" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>5.6981529999999996</v>
-      </c>
-      <c r="E2">
-        <v>5.7055949999999998</v>
-      </c>
-      <c r="G2">
-        <v>5.9226530000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>5.7043689999999998</v>
-      </c>
-      <c r="E3">
-        <v>5.7066439999999998</v>
-      </c>
-      <c r="G3">
-        <v>5.7994830000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>5.7108790000000003</v>
-      </c>
-      <c r="E4">
-        <v>5.7008859999999997</v>
-      </c>
-      <c r="G4">
-        <v>5.7948950000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>5.703436</v>
-      </c>
-      <c r="E5">
-        <v>5.7069279999999996</v>
-      </c>
-      <c r="G5">
-        <v>5.7809549999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>5.7136269999999998</v>
-      </c>
-      <c r="E6">
-        <v>5.7075149999999999</v>
-      </c>
-      <c r="G6">
-        <v>5.7756129999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>5.7009569999999998</v>
-      </c>
-      <c r="E7">
-        <v>5.7161660000000003</v>
-      </c>
-      <c r="G7">
-        <v>5.8330120000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>5.6899920000000002</v>
-      </c>
-      <c r="E8">
-        <v>5.6957269999999998</v>
-      </c>
-      <c r="G8">
-        <v>5.9195270000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>5.7179570000000002</v>
-      </c>
-      <c r="E9">
-        <v>5.7017980000000001</v>
-      </c>
-      <c r="G9">
-        <v>5.731503</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>5.6965940000000002</v>
-      </c>
-      <c r="E10">
-        <v>5.7005489999999996</v>
-      </c>
-      <c r="G10">
-        <v>5.7190899999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>5.7096220000000004</v>
-      </c>
-      <c r="E11">
-        <v>5.7118929999999999</v>
-      </c>
-      <c r="G11">
-        <v>5.7654560000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="1">
-        <f>AVERAGE(C2:C11)</f>
-        <v>5.7045586000000004</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <f>AVERAGE(E2:E11)</f>
-        <v>5.7053701000000006</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1">
-        <f>AVERAGE(G2:G11)</f>
-        <v>5.8042187000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="F15" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>5.6997559999999998</v>
-      </c>
-      <c r="D15">
-        <v>5.7586430000000002</v>
-      </c>
-      <c r="F15">
-        <v>5.737711</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>5.7271539999999996</v>
-      </c>
-      <c r="D16">
-        <v>5.7324330000000003</v>
-      </c>
-      <c r="F16">
-        <v>5.7115150000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>5.7351710000000002</v>
-      </c>
-      <c r="D17">
-        <v>5.6896810000000002</v>
-      </c>
-      <c r="F17">
-        <v>5.6884829999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>5.6973289999999999</v>
-      </c>
-      <c r="D18">
-        <v>5.7294739999999997</v>
-      </c>
-      <c r="F18">
-        <v>5.7070860000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>5.7107140000000003</v>
-      </c>
-      <c r="D19">
-        <v>5.7271640000000001</v>
-      </c>
-      <c r="F19">
-        <v>5.7148680000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>5.7066379999999999</v>
-      </c>
-      <c r="D20">
-        <v>5.7329309999999998</v>
-      </c>
-      <c r="F20">
-        <v>5.697171</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>5.7019209999999996</v>
-      </c>
-      <c r="D21">
-        <v>5.7542350000000004</v>
-      </c>
-      <c r="F21">
-        <v>5.7223639999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>5.6919389999999996</v>
-      </c>
-      <c r="D22">
-        <v>5.7422630000000003</v>
-      </c>
-      <c r="F22">
-        <v>5.6811449999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>5.7032970000000001</v>
-      </c>
-      <c r="D23">
-        <v>5.7155420000000001</v>
-      </c>
-      <c r="F23">
-        <v>5.7101790000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>5.6889770000000004</v>
-      </c>
-      <c r="D24">
-        <v>5.7017730000000002</v>
-      </c>
-      <c r="F24">
-        <v>5.7103390000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="1">
-        <f>AVERAGE(B15:B24)</f>
-        <v>5.7062895999999999</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <f>AVERAGE(D15:D24)</f>
-        <v>5.7284139000000005</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
-        <f>AVERAGE(F15:F24)</f>
-        <v>5.7080860999999992</v>
+      <c r="J15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="22"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>5.6781639999999998</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3">
+        <v>5.7409990000000004</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>5.6854639999999996</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>5.6644540000000001</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="17">
+        <v>5.3815540000000004</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
+        <v>5.3853590000000002</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7">
+        <v>5.4095110000000002</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7">
+        <v>5.4460150000000001</v>
+      </c>
+      <c r="Q16" s="18"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>5.6932169999999998</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>5.7134669999999996</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>5.6844109999999999</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <v>5.7266139999999996</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="17">
+        <v>5.3842210000000001</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7">
+        <v>5.4932679999999996</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7">
+        <v>5.4101540000000004</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7">
+        <v>5.4640050000000002</v>
+      </c>
+      <c r="Q17" s="18"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>5.6857290000000003</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>5.7402379999999997</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>5.6865709999999998</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>5.7285389999999996</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="17">
+        <v>5.3896759999999997</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7">
+        <v>5.4415769999999997</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7">
+        <v>5.4122950000000003</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7">
+        <v>5.4931650000000003</v>
+      </c>
+      <c r="Q18" s="18"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>5.6850300000000002</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>5.6517010000000001</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <v>5.6905539999999997</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <v>5.7233770000000002</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="17">
+        <v>5.379893</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7">
+        <v>5.4149909999999997</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7">
+        <v>5.425306</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7">
+        <v>5.431648</v>
+      </c>
+      <c r="Q19" s="18"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>5.6822609999999996</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>5.7715639999999997</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>5.6887179999999997</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <v>5.7216319999999996</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="17">
+        <v>5.368938</v>
+      </c>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7">
+        <v>5.4524059999999999</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7">
+        <v>5.4207020000000004</v>
+      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7">
+        <v>5.4488110000000001</v>
+      </c>
+      <c r="Q20" s="18"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>5.6888620000000003</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>5.8009079999999997</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>5.7093619999999996</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <v>5.7283819999999999</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="17">
+        <v>5.4556149999999999</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7">
+        <v>5.4984209999999996</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7">
+        <v>5.3919579999999998</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7">
+        <v>5.406072</v>
+      </c>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>5.6887949999999998</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>5.7141909999999996</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
+        <v>5.6998920000000002</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>5.8012839999999999</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="17">
+        <v>5.3899160000000004</v>
+      </c>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7">
+        <v>5.4183070000000004</v>
+      </c>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7">
+        <v>5.400887</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7">
+        <v>5.4922940000000002</v>
+      </c>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>5.6909689999999999</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>5.701435</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>5.6875359999999997</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>5.7068899999999996</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="17">
+        <v>5.4043789999999996</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7">
+        <v>5.4225260000000004</v>
+      </c>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7">
+        <v>5.3961379999999997</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7">
+        <v>5.4115349999999998</v>
+      </c>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>5.6901279999999996</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>5.7918830000000003</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>5.7111729999999996</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>5.7548959999999996</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="17">
+        <v>5.3867330000000004</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7">
+        <v>5.3828139999999998</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7">
+        <v>5.4015849999999999</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7">
+        <v>5.4254720000000001</v>
+      </c>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>5.7036709999999999</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>5.7608379999999997</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>5.6950250000000002</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>5.6912880000000001</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="17">
+        <v>5.4065079999999996</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7">
+        <v>5.4835630000000002</v>
+      </c>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7">
+        <v>5.3797870000000003</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7">
+        <v>5.412312</v>
+      </c>
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <f>AVERAGE(B16:B25)</f>
+        <v>5.6886826000000008</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4">
+        <f>AVERAGE(D16:D25)</f>
+        <v>5.7387223999999994</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4">
+        <f>AVERAGE(F16:F25)</f>
+        <v>5.6938706000000003</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <f>AVERAGE(H16:H25)</f>
+        <v>5.7247356000000007</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="19">
+        <f>AVERAGE(J16:J25)</f>
+        <v>5.3947433</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9">
+        <f>AVERAGE(L16:L25)</f>
+        <v>5.4393231999999996</v>
+      </c>
+      <c r="M26" s="9"/>
+      <c r="N26" s="27">
+        <f>AVERAGE(N16:N25)</f>
+        <v>5.4048322999999998</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9">
+        <f>AVERAGE(P16:P25)</f>
+        <v>5.4431329000000002</v>
+      </c>
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <f>_xlfn.STDEV.S(B16:B25)</f>
+        <v>6.8841014454401597E-3</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
+        <f>_xlfn.STDEV.S(D16:D25)</f>
+        <v>4.5302621602336036E-2</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4">
+        <f>_xlfn.STDEV.S(F16:F25)</f>
+        <v>9.8209629104731144E-3</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4">
+        <f>_xlfn.STDEV.S(H16:H25)</f>
+        <v>3.6336627606620521E-2</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="19">
+        <f>_xlfn.STDEV.S(J16:J25)</f>
+        <v>2.4085231417936382E-2</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9">
+        <f>_xlfn.STDEV.S(L16:L25)</f>
+        <v>4.2107399322842562E-2</v>
+      </c>
+      <c r="M27" s="9"/>
+      <c r="N27" s="27">
+        <f>_xlfn.STDEV.S(N16:N25)</f>
+        <v>1.3628557599149481E-2</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9">
+        <f>_xlfn.STDEV.S(P16:P25)</f>
+        <v>3.1905924996429517E-2</v>
+      </c>
+      <c r="Q27" s="23">
+        <f>P27/N27</f>
+        <v>2.3411079833144393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J28" s="20"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="18"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2.13</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="25"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>5.5480980000000004</v>
+      </c>
+      <c r="D30">
+        <v>5.534173</v>
+      </c>
+      <c r="F30">
+        <v>5.5470610000000002</v>
+      </c>
+      <c r="H30">
+        <v>5.5629540000000004</v>
+      </c>
+      <c r="J30" s="24">
+        <v>5.5558779999999999</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12">
+        <v>5.6988490000000001</v>
+      </c>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12">
+        <v>5.5287940000000004</v>
+      </c>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12">
+        <v>5.5710839999999999</v>
+      </c>
+      <c r="Q30" s="25"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>5.5768170000000001</v>
+      </c>
+      <c r="D31">
+        <v>5.6807230000000004</v>
+      </c>
+      <c r="F31">
+        <v>5.5481319999999998</v>
+      </c>
+      <c r="H31">
+        <v>5.6093500000000001</v>
+      </c>
+      <c r="J31" s="24">
+        <v>5.5464070000000003</v>
+      </c>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12">
+        <v>5.6481539999999999</v>
+      </c>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12">
+        <v>5.5702150000000001</v>
+      </c>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12">
+        <v>5.6059159999999997</v>
+      </c>
+      <c r="Q31" s="25"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>5.556203</v>
+      </c>
+      <c r="D32">
+        <v>5.6653969999999996</v>
+      </c>
+      <c r="F32">
+        <v>5.5487770000000003</v>
+      </c>
+      <c r="H32">
+        <v>5.6424799999999999</v>
+      </c>
+      <c r="J32" s="24">
+        <v>5.5558940000000003</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12">
+        <v>5.6008440000000004</v>
+      </c>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12">
+        <v>5.584517</v>
+      </c>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12">
+        <v>5.5774220000000003</v>
+      </c>
+      <c r="Q32" s="25"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>5.5635709999999996</v>
+      </c>
+      <c r="D33">
+        <v>5.6523700000000003</v>
+      </c>
+      <c r="F33">
+        <v>5.5591189999999999</v>
+      </c>
+      <c r="H33">
+        <v>5.6097489999999999</v>
+      </c>
+      <c r="J33" s="24">
+        <v>5.5636349999999997</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12">
+        <v>5.6256700000000004</v>
+      </c>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12">
+        <v>5.5822120000000002</v>
+      </c>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12">
+        <v>5.6715140000000002</v>
+      </c>
+      <c r="Q33" s="25"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>5.5579419999999997</v>
+      </c>
+      <c r="D34">
+        <v>5.6178559999999997</v>
+      </c>
+      <c r="F34">
+        <v>5.5562250000000004</v>
+      </c>
+      <c r="H34">
+        <v>5.6081200000000004</v>
+      </c>
+      <c r="J34" s="24">
+        <v>5.5717569999999998</v>
+      </c>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12">
+        <v>5.5876669999999997</v>
+      </c>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12">
+        <v>5.5840889999999996</v>
+      </c>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12">
+        <v>5.578379</v>
+      </c>
+      <c r="Q34" s="25"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>5.5653879999999996</v>
+      </c>
+      <c r="D35">
+        <v>5.7132120000000004</v>
+      </c>
+      <c r="F35">
+        <v>5.5607680000000004</v>
+      </c>
+      <c r="H35">
+        <v>5.5918450000000002</v>
+      </c>
+      <c r="J35" s="24">
+        <v>5.5764709999999997</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12">
+        <v>5.617553</v>
+      </c>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12">
+        <v>5.5467820000000003</v>
+      </c>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12">
+        <v>5.7092939999999999</v>
+      </c>
+      <c r="Q35" s="25"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>5.5488790000000003</v>
+      </c>
+      <c r="D36">
+        <v>5.5837690000000002</v>
+      </c>
+      <c r="F36">
+        <v>5.5430089999999996</v>
+      </c>
+      <c r="H36">
+        <v>5.5985440000000004</v>
+      </c>
+      <c r="J36" s="24">
+        <v>5.5828540000000002</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12">
+        <v>5.6540980000000003</v>
+      </c>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12">
+        <v>5.539974</v>
+      </c>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12">
+        <v>5.5836370000000004</v>
+      </c>
+      <c r="Q36" s="25"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>5.5628380000000002</v>
+      </c>
+      <c r="D37">
+        <v>5.5745250000000004</v>
+      </c>
+      <c r="F37">
+        <v>5.5494709999999996</v>
+      </c>
+      <c r="H37">
+        <v>5.6944670000000004</v>
+      </c>
+      <c r="J37" s="24">
+        <v>5.5315560000000001</v>
+      </c>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12">
+        <v>5.5982750000000001</v>
+      </c>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12">
+        <v>5.5751059999999999</v>
+      </c>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12">
+        <v>5.6146900000000004</v>
+      </c>
+      <c r="Q37" s="25"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>5.5538689999999997</v>
+      </c>
+      <c r="D38">
+        <v>5.6729479999999999</v>
+      </c>
+      <c r="F38">
+        <v>5.5528700000000004</v>
+      </c>
+      <c r="H38">
+        <v>5.6992409999999998</v>
+      </c>
+      <c r="J38" s="24">
+        <v>5.5471159999999999</v>
+      </c>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12">
+        <v>5.5896049999999997</v>
+      </c>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12">
+        <v>5.6012620000000002</v>
+      </c>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12">
+        <v>5.6196450000000002</v>
+      </c>
+      <c r="Q38" s="25"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>5.5520350000000001</v>
+      </c>
+      <c r="D39">
+        <v>5.6169779999999996</v>
+      </c>
+      <c r="F39">
+        <v>5.5475849999999998</v>
+      </c>
+      <c r="H39">
+        <v>5.6439180000000002</v>
+      </c>
+      <c r="J39" s="24">
+        <v>5.5558949999999996</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12">
+        <v>5.6328560000000003</v>
+      </c>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12">
+        <v>5.5296190000000003</v>
+      </c>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12">
+        <v>5.606096</v>
+      </c>
+      <c r="Q39" s="25"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B40" s="4">
+        <f>AVERAGE(B30:B39)</f>
+        <v>5.5585639999999996</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4">
+        <f>AVERAGE(D30:D39)</f>
+        <v>5.6311951000000011</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4">
+        <f>AVERAGE(F30:F39)</f>
+        <v>5.5513016999999989</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
+        <f>AVERAGE(H30:H39)</f>
+        <v>5.6260668000000011</v>
+      </c>
+      <c r="J40" s="28">
+        <f>AVERAGE(J30:J39)</f>
+        <v>5.5587463000000001</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13">
+        <f>AVERAGE(L30:L39)</f>
+        <v>5.6253570999999996</v>
+      </c>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13">
+        <f>AVERAGE(N30:N39)</f>
+        <v>5.5642569999999996</v>
+      </c>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13">
+        <f>AVERAGE(P30:P39)</f>
+        <v>5.6137677000000004</v>
+      </c>
+      <c r="Q40" s="25"/>
+    </row>
+    <row r="41" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="4">
+        <f>_xlfn.STDEV.S(B30:B39)</f>
+        <v>8.8005338348179727E-3</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4">
+        <f>_xlfn.STDEV.S(D30:D39)</f>
+        <v>5.5573091391128052E-2</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4">
+        <f>_xlfn.STDEV.S(F30:F39)</f>
+        <v>5.7518914966201255E-3</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4">
+        <f>_xlfn.STDEV.S(H30:H39)</f>
+        <v>4.3970672864737582E-2</v>
+      </c>
+      <c r="J41" s="29">
+        <f>_xlfn.STDEV.S(J30:J39)</f>
+        <v>1.5419508495193069E-2</v>
+      </c>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26">
+        <f>_xlfn.STDEV.S(L30:L39)</f>
+        <v>3.4796425801286682E-2</v>
+      </c>
+      <c r="M41" s="26">
+        <f>L41/J41</f>
+        <v>2.2566494782978483</v>
+      </c>
+      <c r="N41" s="26">
+        <f>_xlfn.STDEV.S(N30:N39)</f>
+        <v>2.5822431174809462E-2</v>
+      </c>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26">
+        <f>_xlfn.STDEV.S(P30:P39)</f>
+        <v>4.4620540793201657E-2</v>
+      </c>
+      <c r="Q41" s="30">
+        <f>P41/N41</f>
+        <v>1.7279759791452287</v>
       </c>
     </row>
   </sheetData>
